--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,52 +67,52 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>hand</t>
@@ -772,7 +772,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
         <v>39</v>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>0.8717948717948718</v>
@@ -904,7 +904,7 @@
         <v>98</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>0.8545454545454545</v>
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>0.8503937007874016</v>
@@ -1004,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.847457627118644</v>
@@ -1054,7 +1054,7 @@
         <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.825</v>
@@ -1104,7 +1104,7 @@
         <v>369</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>0.7784810126582279</v>
@@ -1154,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.7128712871287128</v>
@@ -1204,7 +1204,7 @@
         <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>0.7112676056338029</v>
@@ -1254,28 +1254,28 @@
         <v>129</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.6883116883116883</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L11">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1283,13 +1283,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.09219858156028368</v>
+        <v>0.01568855316676351</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>212</v>
+        <v>449</v>
       </c>
       <c r="E12">
         <v>0.9399999999999999</v>
@@ -1301,19 +1301,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>128</v>
+        <v>1694</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.6739130434782609</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1333,28 +1333,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01568855316676351</v>
+        <v>0.01165126556850141</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>449</v>
+        <v>647</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1694</v>
+        <v>2460</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
         <v>0.6263736263736264</v>
@@ -1383,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01165126556850141</v>
+        <v>0.006844380403458214</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>647</v>
+        <v>444</v>
       </c>
       <c r="E14">
         <v>0.96</v>
@@ -1401,58 +1401,34 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2460</v>
+        <v>2757</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.6085626911314985</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L14">
         <v>199</v>
       </c>
       <c r="M14">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.006844380403458214</v>
-      </c>
-      <c r="C15">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>444</v>
-      </c>
-      <c r="E15">
-        <v>0.96</v>
-      </c>
-      <c r="F15">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2757</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,7 +2808,7 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K68">
         <v>0.2007797270955166</v>
@@ -2858,7 +2834,7 @@
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69">
         <v>0.1994328922495274</v>
@@ -3508,7 +3484,7 @@
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K94">
         <v>0.133563796354494</v>
